--- a/docs/ARTEFATOS(15-23)/ATENDER_CLIENTE/Analise_de_Eventos_ATENDER_CLIENTE.xlsx
+++ b/docs/ARTEFATOS(15-23)/ATENDER_CLIENTE/Analise_de_Eventos_ATENDER_CLIENTE.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t xml:space="preserve">Externo</t>
   </si>
@@ -85,21 +85,6 @@
   </si>
   <si>
     <t xml:space="preserve">O cliente solicita o fechamento do pedido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O caixa devolve o pedido calculado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X(5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O cliente não realiza o pagamento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X(6)</t>
   </si>
 </sst>
 </file>
@@ -365,8 +350,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -526,44 +511,8 @@
       <c r="I7" s="12"/>
       <c r="J7" s="13"/>
     </row>
-    <row r="8" customFormat="false" ht="13.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9" t="n">
-        <v>6</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="13"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="9" t="n">
-        <v>7</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="13"/>
-    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -571,8 +520,8 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A9"/>
-    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>

--- a/docs/ARTEFATOS(15-23)/ATENDER_CLIENTE/Analise_de_Eventos_ATENDER_CLIENTE.xlsx
+++ b/docs/ARTEFATOS(15-23)/ATENDER_CLIENTE/Analise_de_Eventos_ATENDER_CLIENTE.xlsx
@@ -75,7 +75,7 @@
     <t xml:space="preserve">X(1)</t>
   </si>
   <si>
-    <t xml:space="preserve">O garçom solicita o preparo do pedido</t>
+    <t xml:space="preserve">O atendente solicita o preparo do pedido</t>
   </si>
   <si>
     <t xml:space="preserve">X(2)</t>
@@ -351,7 +351,7 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -511,6 +511,11 @@
       <c r="I7" s="12"/>
       <c r="J7" s="13"/>
     </row>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/docs/ARTEFATOS(15-23)/ATENDER_CLIENTE/Analise_de_Eventos_ATENDER_CLIENTE.xlsx
+++ b/docs/ARTEFATOS(15-23)/ATENDER_CLIENTE/Analise_de_Eventos_ATENDER_CLIENTE.xlsx
@@ -84,7 +84,7 @@
     <t xml:space="preserve">A cozinha informa que o pedido está pronto</t>
   </si>
   <si>
-    <t xml:space="preserve">O cliente solicita o fechamento do pedido</t>
+    <t xml:space="preserve">O copeiro entrega a bebida solicitada</t>
   </si>
 </sst>
 </file>
@@ -351,7 +351,7 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
